--- a/matlab_code/tests/analysisFxns/testFiles/toy_model1_random2.xlsx
+++ b/matlab_code/tests/analysisFxns/testFiles/toy_model1_random2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,330 +32,336 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="108">
-  <si>
-    <t>General Reaction and Sampling Platform (GRASP)</t>
-  </si>
-  <si>
-    <t>Unnamed: 1</t>
-  </si>
-  <si>
-    <t>Model name</t>
-  </si>
-  <si>
-    <t>toy_model1_random2</t>
-  </si>
-  <si>
-    <t>Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>ORACLE</t>
-  </si>
-  <si>
-    <t>NLP solver (NLOPT, OPTI, FMINCON (default))</t>
-  </si>
-  <si>
-    <t>FMINCON</t>
-  </si>
-  <si>
-    <t>Number of exp. conditions (excluding reference state)</t>
-  </si>
-  <si>
-    <t>Number of model structures</t>
-  </si>
-  <si>
-    <t>Number of particles</t>
-  </si>
-  <si>
-    <t>Parallel mode (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Number of cores (ignored if Parallel mode disabled)</t>
-  </si>
-  <si>
-    <t>Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>Compute robust fluxes (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
-    <t>Final tolerance (in the case of ORACLE, set to 1)</t>
-  </si>
-  <si>
-    <t>rxn ID</t>
-  </si>
-  <si>
-    <t>m1</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
-    <t>m3</t>
-  </si>
-  <si>
-    <t>m4</t>
-  </si>
-  <si>
-    <t>m5</t>
-  </si>
-  <si>
-    <t>m6</t>
-  </si>
-  <si>
-    <t>m7</t>
-  </si>
-  <si>
-    <t>m8</t>
-  </si>
-  <si>
-    <t>m9</t>
-  </si>
-  <si>
-    <t>m10</t>
-  </si>
-  <si>
-    <t>m11</t>
-  </si>
-  <si>
-    <t>m12</t>
-  </si>
-  <si>
-    <t>m13</t>
-  </si>
-  <si>
-    <t>m14</t>
-  </si>
-  <si>
-    <t>m15</t>
-  </si>
-  <si>
-    <t>m16</t>
-  </si>
-  <si>
-    <t>m17</t>
-  </si>
-  <si>
-    <t>m18</t>
-  </si>
-  <si>
-    <t>m19</t>
-  </si>
-  <si>
-    <t>m20</t>
-  </si>
-  <si>
-    <t>r1</t>
-  </si>
-  <si>
-    <t>r2</t>
-  </si>
-  <si>
-    <t>r3</t>
-  </si>
-  <si>
-    <t>r4</t>
-  </si>
-  <si>
-    <t>r5</t>
-  </si>
-  <si>
-    <t>r6</t>
-  </si>
-  <si>
-    <t>r7</t>
-  </si>
-  <si>
-    <t>r8</t>
-  </si>
-  <si>
-    <t>r9</t>
-  </si>
-  <si>
-    <t>r10</t>
-  </si>
-  <si>
-    <t>r11</t>
-  </si>
-  <si>
-    <t>r12</t>
-  </si>
-  <si>
-    <t>r13</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Metabolite name</t>
-  </si>
-  <si>
-    <t>balanced?</t>
-  </si>
-  <si>
-    <t>active?</t>
-  </si>
-  <si>
-    <t>fixed?</t>
-  </si>
-  <si>
-    <t>measured?</t>
-  </si>
-  <si>
-    <t>reaction name</t>
-  </si>
-  <si>
-    <t>transportRxn?</t>
-  </si>
-  <si>
-    <t>modelled?</t>
-  </si>
-  <si>
-    <t>isoenzymes</t>
-  </si>
-  <si>
-    <t>met</t>
-  </si>
-  <si>
-    <t>rxn</t>
-  </si>
-  <si>
-    <t>∆Gr'_min (kJ/mol)</t>
-  </si>
-  <si>
-    <t>∆Gr'_max (kJ/mol)</t>
-  </si>
-  <si>
-    <t>min (M)</t>
-  </si>
-  <si>
-    <t>max (M)</t>
-  </si>
-  <si>
-    <t>Fluxes (umol/gCDW/h)</t>
-  </si>
-  <si>
-    <t>vref_mean</t>
-  </si>
-  <si>
-    <t>vref_std</t>
-  </si>
-  <si>
-    <t>vexp1_mean</t>
-  </si>
-  <si>
-    <t>vexp1_std</t>
-  </si>
-  <si>
-    <t>enzyme/rxn</t>
-  </si>
-  <si>
-    <t>MBo10_LB2</t>
-  </si>
-  <si>
-    <t>MBo10_meas2</t>
-  </si>
-  <si>
-    <t>MBo10_UB2</t>
-  </si>
-  <si>
-    <t>MBo10_LB2 (M)</t>
-  </si>
-  <si>
-    <t>MBo10_UB2 (M)</t>
-  </si>
-  <si>
-    <t>reaction ID</t>
-  </si>
-  <si>
-    <t>kinetic mechanism</t>
-  </si>
-  <si>
-    <t>substrate order</t>
-  </si>
-  <si>
-    <t>product order</t>
-  </si>
-  <si>
-    <t>promiscuous</t>
-  </si>
-  <si>
-    <t>inhibitors</t>
-  </si>
-  <si>
-    <t>activators</t>
-  </si>
-  <si>
-    <t>negative effector</t>
-  </si>
-  <si>
-    <t>positive effector</t>
-  </si>
-  <si>
-    <t>allosteric</t>
-  </si>
-  <si>
-    <t>subunits</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>substrateInhibOrderedBiBi</t>
-  </si>
-  <si>
-    <t>m3 m6</t>
-  </si>
-  <si>
-    <t>m5 m14</t>
-  </si>
-  <si>
-    <t>UniUniPromiscuous</t>
-  </si>
-  <si>
-    <t>m5 m6</t>
-  </si>
-  <si>
-    <t>m7 m10</t>
-  </si>
-  <si>
-    <t>r2 r5</t>
-  </si>
-  <si>
-    <t>OrdPromiscCompInhibIndep</t>
-  </si>
-  <si>
-    <t>m1 m7 m1 m10</t>
-  </si>
-  <si>
-    <t>m8 m11 m12 m12</t>
-  </si>
-  <si>
-    <t>r3 r6</t>
-  </si>
-  <si>
-    <t>randomBiBiCompInhib</t>
-  </si>
-  <si>
-    <t>m2 m8 </t>
-  </si>
-  <si>
-    <t>m9 m13</t>
-  </si>
-  <si>
-    <t>massAction</t>
-  </si>
-  <si>
-    <t>diffusion</t>
-  </si>
-  <si>
-    <t>fixedExchange</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="110">
+  <si>
+    <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toy_model1_random2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORACLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMINCON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP solver (linprog or gurobi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of model structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel mode (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolite name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balanced?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixed?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measured?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transportRxn?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modelled?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isoenzymes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">met</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_min (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_max (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluxes (umol/gCDW/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vexp1_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vexp1_std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enzyme/rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_LB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_meas2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_UB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_LB2 (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_UB2 (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinetic mechanism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substrate order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inhibitors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative effector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive effector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allosteric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subunits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substrateInhibOrderedBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3 m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5 m14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniUniPromiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5 m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m7 m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r2 r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OrdPromiscCompInhibIndep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1 m7 m1 m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m8 m11 m12 m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r3 r6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randomBiBiCompInhib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2 m8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">m9 m13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">massAction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diffusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixedExchange</t>
   </si>
 </sst>
 </file>
@@ -363,7 +369,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -446,13 +452,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -488,15 +498,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="X1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="L2:L16 B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -531,62 +541,62 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>1</v>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="n">
         <v>5</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
@@ -594,21 +604,30 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -623,35 +642,35 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="L2:L16 A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -668,7 +687,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -685,7 +704,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -702,7 +721,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -719,7 +738,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -736,7 +755,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
@@ -754,7 +773,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -769,32 +788,32 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="L2:L16 A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -808,7 +827,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -822,7 +841,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -836,7 +855,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -850,7 +869,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -864,7 +883,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -878,7 +897,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -892,7 +911,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -906,7 +925,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -920,7 +939,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -934,7 +953,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -948,7 +967,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -962,7 +981,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -977,7 +996,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -992,32 +1011,32 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="L2:L16 A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -1031,7 +1050,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1045,7 +1064,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1059,7 +1078,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1073,7 +1092,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1087,7 +1106,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -1101,7 +1120,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -1115,7 +1134,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -1129,7 +1148,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -1143,7 +1162,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -1157,7 +1176,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1171,7 +1190,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1185,7 +1204,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1199,7 +1218,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1213,7 +1232,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1227,7 +1246,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1241,7 +1260,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1255,7 +1274,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1269,7 +1288,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1283,7 +1302,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1298,7 +1317,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1313,74 +1332,74 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2:L16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.0283400809717"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.3481781376518"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.3846153846154"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.7408906882591"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="43.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1391,19 +1410,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1414,22 +1433,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1440,19 +1459,19 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>23</v>
+        <v>105</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1463,19 +1482,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1486,22 +1505,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1512,10 +1531,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1526,10 +1545,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1540,10 +1559,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1554,10 +1573,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1568,10 +1587,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1582,10 +1601,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1596,10 +1615,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1611,7 +1630,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1626,83 +1645,83 @@
   </sheetPr>
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="L2:L16 A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1767,7 +1786,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1832,7 +1851,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1897,7 +1916,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1962,7 +1981,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -2027,7 +2046,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -2092,7 +2111,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2157,7 +2176,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2222,7 +2241,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2287,7 +2306,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2352,7 +2371,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2417,7 +2436,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2482,7 +2501,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2548,7 +2567,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2563,41 +2582,41 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="1" sqref="L2:L16 A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2614,10 +2633,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2634,10 +2653,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2654,10 +2673,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2674,10 +2693,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -2694,10 +2713,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -2714,10 +2733,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -2734,10 +2753,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -2754,10 +2773,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -2774,10 +2793,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -2794,10 +2813,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -2814,10 +2833,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2834,10 +2853,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2854,10 +2873,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -2874,10 +2893,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -2894,10 +2913,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -2914,10 +2933,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -2934,10 +2953,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -2954,10 +2973,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -2974,10 +2993,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -2995,7 +3014,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3010,38 +3029,38 @@
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="L2:L16 B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -3052,10 +3071,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -3066,10 +3085,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -3080,10 +3099,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -3094,10 +3113,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -3108,10 +3127,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -3122,10 +3141,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -3136,10 +3155,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -3150,10 +3169,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -3164,10 +3183,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -3178,10 +3197,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -3192,10 +3211,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -3206,10 +3225,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -3221,7 +3240,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3236,89 +3255,89 @@
   </sheetPr>
   <dimension ref="A2:A15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="L2:L16 A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3333,124 +3352,124 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="L2:L16 A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3465,124 +3484,124 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="L2:L16 A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3597,29 +3616,29 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="L2:L16 A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3630,7 +3649,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3641,7 +3660,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3652,7 +3671,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3663,7 +3682,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3674,7 +3693,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3685,7 +3704,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3696,7 +3715,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3707,7 +3726,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3718,7 +3737,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3729,7 +3748,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3740,7 +3759,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3751,7 +3770,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3763,7 +3782,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3778,29 +3797,29 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="L2:L16 H13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3811,7 +3830,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3822,7 +3841,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3833,7 +3852,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3844,7 +3863,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3855,7 +3874,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3866,7 +3885,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3877,7 +3896,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3888,7 +3907,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3899,7 +3918,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3910,7 +3929,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3921,7 +3940,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3932,7 +3951,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3943,7 +3962,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3954,7 +3973,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3965,7 +3984,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3976,7 +3995,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3987,7 +4006,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3998,7 +4017,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -4009,7 +4028,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>
@@ -4021,7 +4040,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/matlab_code/tests/analysisFxns/testFiles/toy_model1_random2.xlsx
+++ b/matlab_code/tests/analysisFxns/testFiles/toy_model1_random2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -500,8 +500,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D29" activeCellId="1" sqref="E2:E7 D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -642,13 +642,16 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -668,7 +671,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -676,16 +679,18 @@
         <v>-22.0149320730417</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>1.10350536706976</v>
+        <f aca="false">0.1*B2</f>
+        <v>-2.20149320730417</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>-22.0149320730417</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>1.10350536706976</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">0.1*D2</f>
+        <v>-2.20149320730417</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>49</v>
       </c>
@@ -693,16 +698,18 @@
         <v>0.285369137837419</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>2.12397436954052E-007</v>
+        <f aca="false">0.1*B3</f>
+        <v>0.0285369137837419</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>0.285369137837419</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>2.12397436954052E-007</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">0.1*D3</f>
+        <v>0.0285369137837419</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>50</v>
       </c>
@@ -710,16 +717,18 @@
         <v>0.0578197638950879</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>3.18755368558865E-009</v>
+        <f aca="false">0.1*B4</f>
+        <v>0.00578197638950879</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>0.0578197638950879</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>3.18755368558865E-009</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">0.1*D4</f>
+        <v>0.00578197638950879</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -727,16 +736,18 @@
         <v>-0.00439408376660814</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>3.33787220043099E-011</v>
+        <f aca="false">0.1*B5</f>
+        <v>-0.000439408376660814</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>-0.00439408376660814</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>3.33787220043099E-011</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">0.1*D5</f>
+        <v>-0.000439408376660814</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
@@ -744,16 +755,18 @@
         <v>6.84865633256387</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>2.00430304742416E-005</v>
+        <f aca="false">0.1*B6</f>
+        <v>0.684865633256387</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>6.84865633256387</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>2.00430304742416E-005</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">0.1*D6</f>
+        <v>0.684865633256387</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>53</v>
       </c>
@@ -761,13 +774,15 @@
         <v>-0.00242684925806694</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>6.60284204552005E-011</v>
+        <f aca="false">0.1*B7</f>
+        <v>-0.000242684925806694</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>-0.00242684925806694</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>6.60284204552005E-011</v>
+        <f aca="false">0.1*D7</f>
+        <v>-0.000242684925806694</v>
       </c>
     </row>
   </sheetData>
@@ -789,7 +804,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E2:E7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1012,7 +1027,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E2:E7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1333,7 +1348,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="E2:E7 L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1646,7 +1661,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E2:E7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2583,7 +2598,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="1" sqref="E2:E7 A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3030,7 +3045,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="E2:E7 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3256,7 +3271,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="E2:E7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3353,7 +3368,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="E2:E7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3485,7 +3500,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="E2:E7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3617,7 +3632,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E2:E7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3798,7 +3813,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="E2:E7 H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/matlab_code/tests/analysisFxns/testFiles/toy_model1_random2.xlsx
+++ b/matlab_code/tests/analysisFxns/testFiles/toy_model1_random2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="104">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -46,13 +46,13 @@
     <t xml:space="preserve">toy_model1_random2</t>
   </si>
   <si>
-    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORACLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+    <t xml:space="preserve">Sampling mode (GRASP or rejection)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRASP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT or FMINCON (default))</t>
   </si>
   <si>
     <t xml:space="preserve">FMINCON</t>
@@ -79,18 +79,9 @@
     <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
   </si>
   <si>
-    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
   </si>
   <si>
@@ -205,12 +196,6 @@
     <t xml:space="preserve">balanced?</t>
   </si>
   <si>
-    <t xml:space="preserve">active?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fixed?</t>
-  </si>
-  <si>
     <t xml:space="preserve">measured?</t>
   </si>
   <si>
@@ -218,9 +203,6 @@
   </si>
   <si>
     <t xml:space="preserve">transportRxn?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modelled?</t>
   </si>
   <si>
     <t xml:space="preserve">isoenzymes</t>
@@ -501,12 +483,13 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D29" activeCellId="1" sqref="E2:E7 D29"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="55.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -517,24 +500,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -554,7 +537,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -593,6 +576,9 @@
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -602,27 +588,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -642,38 +610,38 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -692,7 +660,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -711,7 +679,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -730,7 +698,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -749,7 +717,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -768,7 +736,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
@@ -804,7 +772,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E2:E7 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -814,21 +782,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -842,7 +810,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -856,7 +824,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -870,7 +838,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -884,7 +852,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -898,7 +866,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -912,7 +880,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -926,7 +894,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -940,7 +908,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -954,7 +922,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -968,7 +936,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -982,7 +950,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -996,7 +964,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1027,7 +995,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E2:E7 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1037,21 +1005,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -1065,7 +1033,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1079,7 +1047,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1093,7 +1061,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1107,7 +1075,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1121,7 +1089,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -1135,7 +1103,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -1149,7 +1117,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -1163,7 +1131,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -1177,7 +1145,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -1191,7 +1159,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1205,7 +1173,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1219,7 +1187,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1233,7 +1201,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1247,7 +1215,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1261,7 +1229,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1275,7 +1243,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1289,7 +1257,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1303,7 +1271,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1317,7 +1285,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1348,7 +1316,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="E2:E7 L2"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1364,57 +1332,57 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1425,19 +1393,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1448,22 +1416,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1474,19 +1442,19 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1497,19 +1465,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1520,22 +1488,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1546,10 +1514,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1560,10 +1528,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1574,10 +1542,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1588,10 +1556,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1602,10 +1570,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1616,10 +1584,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1630,10 +1598,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1661,7 +1629,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E2:E7 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1671,72 +1639,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1801,7 +1769,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1866,7 +1834,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1931,7 +1899,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1996,7 +1964,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -2061,7 +2029,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -2126,7 +2094,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2191,7 +2159,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2256,7 +2224,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2321,7 +2289,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2386,7 +2354,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2451,7 +2419,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2516,7 +2484,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2595,434 +2563,309 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="1" sqref="E2:E7 A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3042,214 +2885,173 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="E2:E7 B2"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3271,7 +3073,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="E2:E7 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3281,72 +3083,72 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3368,7 +3170,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="E2:E7 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3378,107 +3180,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3500,7 +3302,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="E2:E7 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3510,107 +3312,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3632,7 +3434,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E2:E7 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3642,18 +3444,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3664,7 +3466,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3675,7 +3477,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3686,7 +3488,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3697,7 +3499,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3708,7 +3510,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3719,7 +3521,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3730,7 +3532,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3741,7 +3543,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3752,7 +3554,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3763,7 +3565,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3774,7 +3576,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3785,7 +3587,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3813,7 +3615,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="E2:E7 H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3823,18 +3625,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3845,7 +3647,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3856,7 +3658,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3867,7 +3669,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3878,7 +3680,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3889,7 +3691,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3900,7 +3702,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3911,7 +3713,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3922,7 +3724,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3933,7 +3735,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3944,7 +3746,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3955,7 +3757,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3966,7 +3768,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3977,7 +3779,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3988,7 +3790,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3999,7 +3801,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -4010,7 +3812,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -4021,7 +3823,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -4032,7 +3834,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -4043,7 +3845,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>

--- a/matlab_code/tests/analysisFxns/testFiles/toy_model1_random2.xlsx
+++ b/matlab_code/tests/analysisFxns/testFiles/toy_model1_random2.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="103">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t xml:space="preserve">balanced?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measured?</t>
   </si>
   <si>
     <t xml:space="preserve">reaction name</t>
@@ -447,12 +444,12 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -624,19 +621,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -782,16 +779,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1005,16 +1002,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1332,40 +1329,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1373,13 +1370,13 @@
         <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>88</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>89</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>23</v>
@@ -1396,16 +1393,16 @@
         <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>93</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1419,16 +1416,16 @@
         <v>40</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>96</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>97</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>26</v>
@@ -1445,13 +1442,13 @@
         <v>41</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>22</v>
@@ -1468,16 +1465,16 @@
         <v>42</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>93</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1491,16 +1488,16 @@
         <v>43</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="D7" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="E7" s="0" t="s">
         <v>96</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>97</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>26</v>
@@ -1517,7 +1514,7 @@
         <v>44</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1531,7 +1528,7 @@
         <v>45</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1545,7 +1542,7 @@
         <v>46</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1559,7 +1556,7 @@
         <v>47</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1573,7 +1570,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1587,7 +1584,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1601,7 +1598,7 @@
         <v>50</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -2563,7 +2560,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
@@ -2571,8 +2568,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2585,21 +2582,15 @@
       <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2607,13 +2598,10 @@
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2621,13 +2609,10 @@
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2635,13 +2620,10 @@
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2649,111 +2631,87 @@
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2761,13 +2719,10 @@
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2775,13 +2730,10 @@
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2789,13 +2741,10 @@
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2803,13 +2752,10 @@
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2817,13 +2763,10 @@
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2831,13 +2774,10 @@
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2845,13 +2785,10 @@
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2859,13 +2796,10 @@
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2902,20 +2836,20 @@
         <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -2926,7 +2860,7 @@
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -2937,7 +2871,7 @@
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -2948,7 +2882,7 @@
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -2959,7 +2893,7 @@
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -2970,7 +2904,7 @@
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -2981,7 +2915,7 @@
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -2992,7 +2926,7 @@
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -3003,7 +2937,7 @@
       <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -3014,7 +2948,7 @@
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -3025,7 +2959,7 @@
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -3036,7 +2970,7 @@
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C13" s="0" t="n">
@@ -3047,7 +2981,7 @@
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -3180,7 +3114,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3312,7 +3246,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3444,13 +3378,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3625,13 +3559,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/matlab_code/tests/analysisFxns/testFiles/toy_model1_random2.xlsx
+++ b/matlab_code/tests/analysisFxns/testFiles/toy_model1_random2.xlsx
@@ -5,22 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="stoic" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="mets" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="rxns" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="splitRatios" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="poolConst" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="thermo_ineq_constraints" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="thermoRxns" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="thermoMets" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="measRates" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="protData" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="metsData" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="kinetics1" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="poolConst" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="thermo_ineq_constraints" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="thermoRxns" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="thermoMets" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="measRates" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="protData" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="metsData" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="kinetics1" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="103">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -605,167 +604,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>-22.0149320730417</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <f aca="false">0.1*B2</f>
-        <v>-2.20149320730417</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>-22.0149320730417</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <f aca="false">0.1*D2</f>
-        <v>-2.20149320730417</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0.285369137837419</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <f aca="false">0.1*B3</f>
-        <v>0.0285369137837419</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0.285369137837419</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <f aca="false">0.1*D3</f>
-        <v>0.0285369137837419</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0.0578197638950879</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <f aca="false">0.1*B4</f>
-        <v>0.00578197638950879</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0.0578197638950879</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <f aca="false">0.1*D4</f>
-        <v>0.00578197638950879</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>-0.00439408376660814</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <f aca="false">0.1*B5</f>
-        <v>-0.000439408376660814</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>-0.00439408376660814</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <f aca="false">0.1*D5</f>
-        <v>-0.000439408376660814</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>6.84865633256387</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <f aca="false">0.1*B6</f>
-        <v>0.684865633256387</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>6.84865633256387</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <f aca="false">0.1*D6</f>
-        <v>0.684865633256387</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>-0.00242684925806694</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <f aca="false">0.1*B7</f>
-        <v>-0.000242684925806694</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>-0.00242684925806694</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <f aca="false">0.1*D7</f>
-        <v>-0.000242684925806694</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -984,7 +822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1305,7 +1143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2562,7 +2400,7 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -3004,10 +2842,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A15"/>
+  <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3017,72 +2855,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3233,138 +3106,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A22"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -3541,7 +3282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3797,4 +3538,165 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>-22.0149320730417</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <f aca="false">0.1*B2</f>
+        <v>-2.20149320730417</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>-22.0149320730417</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <f aca="false">0.1*D2</f>
+        <v>-2.20149320730417</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.285369137837419</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <f aca="false">0.1*B3</f>
+        <v>0.0285369137837419</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.285369137837419</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <f aca="false">0.1*D3</f>
+        <v>0.0285369137837419</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.0578197638950879</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <f aca="false">0.1*B4</f>
+        <v>0.00578197638950879</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.0578197638950879</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <f aca="false">0.1*D4</f>
+        <v>0.00578197638950879</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>-0.00439408376660814</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <f aca="false">0.1*B5</f>
+        <v>-0.000439408376660814</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>-0.00439408376660814</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <f aca="false">0.1*D5</f>
+        <v>-0.000439408376660814</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>6.84865633256387</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <f aca="false">0.1*B6</f>
+        <v>0.684865633256387</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>6.84865633256387</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <f aca="false">0.1*D6</f>
+        <v>0.684865633256387</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>-0.00242684925806694</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <f aca="false">0.1*B7</f>
+        <v>-0.000242684925806694</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>-0.00242684925806694</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <f aca="false">0.1*D7</f>
+        <v>-0.000242684925806694</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/matlab_code/tests/analysisFxns/testFiles/toy_model1_random2.xlsx
+++ b/matlab_code/tests/analysisFxns/testFiles/toy_model1_random2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="106">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
   </si>
   <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
@@ -349,7 +358,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -379,6 +388,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -430,7 +452,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -441,6 +463,14 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -478,8 +508,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -528,64 +558,78 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -607,7 +651,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -617,21 +661,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -645,7 +689,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -659,7 +703,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -673,7 +717,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -687,7 +731,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -701,7 +745,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -715,7 +759,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -729,7 +773,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -743,7 +787,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -757,7 +801,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -771,7 +815,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -785,7 +829,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -799,7 +843,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -830,7 +874,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -840,21 +884,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -868,7 +912,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -882,7 +926,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -896,7 +940,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -910,7 +954,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -924,7 +968,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -938,7 +982,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -952,7 +996,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -966,7 +1010,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -980,7 +1024,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -994,7 +1038,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1008,7 +1052,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1022,7 +1066,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1036,7 +1080,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1050,7 +1094,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1064,7 +1108,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1078,7 +1122,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1092,7 +1136,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1106,7 +1150,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1120,7 +1164,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1151,7 +1195,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="A6:B7 L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1167,57 +1211,57 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1228,19 +1272,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1251,22 +1295,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1277,19 +1321,19 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>22</v>
+        <v>101</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1300,19 +1344,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1323,22 +1367,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1349,10 +1393,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1363,10 +1407,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1377,10 +1421,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1391,10 +1435,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1405,10 +1449,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1419,10 +1463,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1433,10 +1477,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1464,7 +1508,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1474,72 +1518,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1604,7 +1648,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1669,7 +1713,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1734,7 +1778,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1799,7 +1843,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1864,7 +1908,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -1929,7 +1973,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -1994,7 +2038,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2059,7 +2103,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2124,7 +2168,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2189,7 +2233,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2254,7 +2298,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2319,7 +2363,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2401,7 +2445,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2412,21 +2456,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2434,10 +2478,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2445,10 +2489,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2456,10 +2500,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2467,10 +2511,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -2478,10 +2522,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -2489,10 +2533,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -2500,10 +2544,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -2511,10 +2555,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -2522,10 +2566,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -2533,10 +2577,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -2544,10 +2588,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2555,10 +2599,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2566,10 +2610,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -2577,10 +2621,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -2588,10 +2632,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -2599,10 +2643,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -2610,10 +2654,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -2621,10 +2665,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -2632,10 +2676,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -2660,7 +2704,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2671,24 +2715,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2696,10 +2740,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2707,10 +2751,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2718,10 +2762,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2729,10 +2773,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -2740,10 +2784,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -2751,10 +2795,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -2762,10 +2806,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -2773,10 +2817,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -2784,10 +2828,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -2795,10 +2839,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -2806,10 +2850,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2817,10 +2861,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2844,8 +2888,8 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F27" activeCellId="1" sqref="A6:B7 F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2855,107 +2899,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2977,7 +3021,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A6:B7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2987,107 +3031,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3109,7 +3153,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3119,18 +3163,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3141,7 +3185,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3152,7 +3196,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3163,7 +3207,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3174,7 +3218,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3185,7 +3229,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3196,7 +3240,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3207,7 +3251,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3218,7 +3262,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3229,7 +3273,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3240,7 +3284,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3251,7 +3295,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3262,7 +3306,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3290,7 +3334,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="A6:B7 H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3300,18 +3344,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3322,7 +3366,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3333,7 +3377,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3344,7 +3388,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3355,7 +3399,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3366,7 +3410,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3377,7 +3421,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3388,7 +3432,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3399,7 +3443,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3410,7 +3454,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3421,7 +3465,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3432,7 +3476,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3443,7 +3487,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3454,7 +3498,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3465,7 +3509,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3476,7 +3520,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3487,7 +3531,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3498,7 +3542,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3509,7 +3553,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -3520,7 +3564,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>
@@ -3548,7 +3592,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="A6:B7 E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3561,24 +3605,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -3597,7 +3641,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -3616,7 +3660,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -3635,7 +3679,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -3654,7 +3698,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -3673,7 +3717,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
